--- a/Price_Study/US/Results/BLUEBERRIES/summary.xlsx
+++ b/Price_Study/US/Results/BLUEBERRIES/summary.xlsx
@@ -429,7 +429,7 @@
         <v>165</v>
       </c>
       <c r="E2">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,7 +446,7 @@
         <v>6.698495207992736</v>
       </c>
       <c r="E3">
-        <v>6.805060202139084</v>
+        <v>6.75508449792258</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,7 +463,7 @@
         <v>1.786327234239622</v>
       </c>
       <c r="E4">
-        <v>2.395773561570604</v>
+        <v>2.367238942232806</v>
       </c>
     </row>
     <row r="5" spans="1:5">
